--- a/PLSstatic_predicted_variables_matrix_7.xlsx
+++ b/PLSstatic_predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:AV67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,135 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +595,135 @@
       <c r="E2" t="n">
         <v>-0.2603078741719655</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2550678635530986</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.2508582277055221</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.2475203395049263</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.2449008645355406</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.2428653279467443</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2413012372791081</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.240116713005961</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.2392375458177055</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.2386040208013205</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.2381680547535411</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2378908127988714</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2377408025323896</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2376923805767644</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.2377245917871326</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.2378202671301921</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2379653188875447</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.2381481851742335</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.2383593874274606</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.2385911738612184</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.2388372290028244</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.2390924346943022</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.2393526717662167</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2396146543400275</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2398757906819916</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2401340659412905</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.2403879431218902</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.2406362793794373</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.2408782552841401</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.2411133151056913</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.2413411164965554</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.2415614882025938</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.2417743946336421</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.241979906294059</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2421781752132007</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2423694146343716</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2425538823223521</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2427318669372424</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2429036769983594</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.243069632028054</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.2432300555229373</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2433852694502324</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2435355900107248</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.2436813244478627</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +741,135 @@
       <c r="E3" t="n">
         <v>0.2219038119513357</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2275741842497884</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2315006781087514</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2342299267621092</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2361252537292565</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2374332366939738</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2383244606691846</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.238918989048659</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2393026101310384</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2395374071654765</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2396687687900833</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2397301263698327</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2397462141976359</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.239735353447007</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2397110801453659</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2396833250526539</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2396592823395898</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2396440584935534</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2396411633877961</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2396528860886869</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2396805851169178</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2397249142374981</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2397859989749358</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.2398635749981033</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2399570966862734</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2400658221762169</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.2401888797381051</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2403253192614407</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.2404741518350859</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2406343797993297</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2408050191795204</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2409851160434073</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2411737580324796</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2413700820831787</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.2415732791639655</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.2417825966993375</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2419973392249698</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2422168677137964</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2424405979269387</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.2426679980726003</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.2428985859977995</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.2431319260899399</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.2433676260260113</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.2436053334751918</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +887,135 @@
       <c r="E4" t="n">
         <v>0.2003130255661635</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.2071774879732051</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2121909129786471</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2159509780315747</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2188338924710436</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2210834253264804</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2228626500035563</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2242843665857997</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2254292329957429</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.226356746174095</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2271120200809992</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2277300629519103</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2282385460861273</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2286596482106057</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2290113228949366</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.229308198210884</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2295622362454505</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2297832314675563</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2299791976838202</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2301566755042793</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2303209812642171</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.2304764114982802</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.2306264127243004</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.2307737234994589</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2309204938756977</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.2310683861477982</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.2312186599368729</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.2313722440480239</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.2315297970985367</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.2316917585785393</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.2318583917454126</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.2320298195444452</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.2322060545769953</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.2323870239942906</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.2325725900736022</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.2327625671294654</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.2329567353227541</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.2331548518524434</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.2333566599470692</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.2335618960138136</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.2337702952517035</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.2339815959906356</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.2341955429790493</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.2344118898093385</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1033,135 @@
       <c r="E5" t="n">
         <v>-0.07208681723365493</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.06951590857474749</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.06766099714217966</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.06632278507057442</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.06536669151204294</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.06469788574987351</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.06424725283174912</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.06396311550919027</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.06380609880160852</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.06374578745882153</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.06375845664661189</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.06382547625774075</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.06393215651953808</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.06406689332422923</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.0642205231937505</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.06438582841179034</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.06455715190064833</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.06473009372679919</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.06490126931351056</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.06506811501901066</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.06522873060214715</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.06538175080708772</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.06552624022030556</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.06566160693097306</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.06578753152555866</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.06590390868233481</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.06601079917985579</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.0661083905492944</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.06619696492128416</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.06627687286960934</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.06634851225487527</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.06641231123389016</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.06646871473391362</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.06651817380162336</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.06656113732929708</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.06659804573877129</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.06662932626983017</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.06665538957581302</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.0666766273769907</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.06669341096293119</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.0667060903696909</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.06671499408711418</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.06672042917651358</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.06672268170019002</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1179,135 @@
       <c r="E6" t="n">
         <v>0.1903457619058487</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.1914586224126808</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1921746120124491</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1926146630262684</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1928541386737946</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.192945826684719</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.192929804181142</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.192837760657691</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1926950654042392</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1925219493109321</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.1923343414584807</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.1921445568039013</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.1919618975571097</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.19179318435447</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.1916432205807097</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.1915151919478861</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.1914110051060832</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1913315707090499</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.1912770372695934</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.1912469823491279</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.1912405673548709</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.1912566616790174</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.1912939412601549</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1913509659741511</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1914262396230622</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1915182557117982</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1916255316922082</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1917466339126496</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1918801951331564</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1920249261453265</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.1921796227648818</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1923431692367141</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.1925145389009238</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.192692792808414</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1928770768413005</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.1930666177826406</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.1932607186882784</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1934587538379768</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.1936601634808962</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.1938644485397405</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1940711653966491</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1942799208506344</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.1944903673096871</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.1947021982594885</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1325,135 @@
       <c r="E7" t="n">
         <v>-0.4130439671294735</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4081101097788178</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.4043053476739602</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.4013614639230262</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.3990859450782611</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.3973370328853796</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.3960080092618198</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.3950169488755955</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.3942998488826306</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.3938059208589648</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.3934943063505266</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.3933317491972621</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.3932909204543527</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.3933491934245542</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.3934877321128367</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.3936908000331569</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.3939452256578035</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.3942399807290398</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.3945658412300476</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.3949151100697969</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.3952813868453855</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.3956593743415801</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.3960447143528018</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.3964338474081768</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.3968238923469559</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.3972125426349365</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.397597976971649</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.3979787822067417</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.3983538869249971</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.3987225043145315</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.3990840831296483</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.3994382657167526</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.3997848522006454</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.4001237700372294</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.4004550482322901</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.4007787956079435</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.4010951825708088</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.4014044259005051</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.401706776134765</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.402002507179107</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.4022919078152192</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.4025752748235276</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.4028529074722443</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-0.4031251031579645</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1471,135 @@
       <c r="E8" t="n">
         <v>-0.1690240571129148</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.1625851136700173</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.1574385258332662</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.1532834978419163</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.1499076989297316</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.1471557839212409</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.1449104897722868</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.1430809057604957</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1415949628402058</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1403944789283545</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.1394317963403649</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1386674366209742</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.1380684206602653</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.1376070331784748</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.1372598901334428</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.1370072169314039</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.1368322765634004</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.1367209068939382</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.1366611394236916</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.1366428804569779</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.1366576413066941</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.136698307971979</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1367589432788076</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1368346162065589</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1369212543137254</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.1370155160072091</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.1371146799931685</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.1372165496827626</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.1373193706556068</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.1374217595414969</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.1375226428892492</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.1376212047648646</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.1377168419690852</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.1378091258929414</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1378977701431372</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.1379826031698009</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.1380635452191255</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.1381405890140498</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.1382137836384261</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.1382832211648797</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.1383490256244648</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.1384113439678855</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.1384703387139933</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>-0.1385261820220333</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1617,135 @@
       <c r="E9" t="n">
         <v>-0.3561919531308986</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3467945576521795</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.3400602983057954</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.335183437103354</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.3316347108924167</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.3290572184546166</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.3272037033395666</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.3258982432923118</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.3250124771894183</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.3244505899517605</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.3241396400449683</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.3240231912259539</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.3240570190883375</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.3242061424528842</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.3244427166127679</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.3247444988975557</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.3250937029432316</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.3254761234273457</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.325880453818633</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.3262977454382394</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.326720972584897</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.3271446791362848</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.3275646890495776</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.327977867874262</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.3283819255889023</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.3287752533024693</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.3291567879511349</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.3295259002848002</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.3298823023106337</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.3302259710324502</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.3305570858534075</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.3308759774341878</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.3311830861459614</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.3314789285451419</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.3317640705379973</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.3320391061067789</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.3323046406419495</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.3325612780725082</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.3328096111123374</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.3330502140481696</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.3332836375868169</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.3335104053579374</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.3337310117356583</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>-0.3339459206994765</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1763,135 @@
       <c r="E10" t="n">
         <v>0.3806683893586557</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3848043067868313</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3879950707225991</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3904532988547373</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3923449027940101</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.3937994232754848</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3949179759615384</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3957794743800772</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.396445512730911</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.3969641812769489</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.3973730329952623</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.397701382415744</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.3979720849671898</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.3982029158710082</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.3984076421047583</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.3985968596299952</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.3987786509062849</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.3989591042895653</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.3991427266503011</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.3993327728235174</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.3995315097496047</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.3997404289020847</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.3999604174435095</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.4001918962089187</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.4004349308674199</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.4006893212945908</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.4009546731841653</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.4012304551525952</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.4015160439842564</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.4018107601852618</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.4021138956291842</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.4024247347662757</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.4027425706128342</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.4030667165272866</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.4033965146054651</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.4037313413826717</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.4040706114092151</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.4044137791650698</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.4047603396948315</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.4051098282735537</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.4054618193551524</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.4058159250060002</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.406171792985601</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.4065291046024926</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1909,135 @@
       <c r="E11" t="n">
         <v>-0.2171001804450659</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2117344930718948</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.2079036182820964</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.2050923543896722</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.2029863128865355</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.2013875686351101</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.2001669350377512</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.1992366792897662</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.1985347306500453</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.1980154066255032</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.1976438717330423</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.197392757203403</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.1972400470967743</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.1971677168881165</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.1971608262771253</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.1972068913112481</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.1972954320882139</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.1974176337751511</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.1975660830758801</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.1977345567648238</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.1979178475904201</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.1981116181061895</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.1983122761987767</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.1985168680653263</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.1987229856324956</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.1989286861968887</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.1991324225771756</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.1993329824081425</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.199529435441369</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.1997210878858621</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.1999074429491244</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.2000881668396531</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.2002630595748472</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.200432030009272</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.2005950745605209</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.200752259165596</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.2009037040509981</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.2010495709453884</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.2011900524052255</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.2013253629615767</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.201455731830591</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.2015813969611716</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.2017026002213614</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>-0.2018195835501163</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2055,135 @@
       <c r="E12" t="n">
         <v>-0.1029217428081075</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.09848054171540943</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.0954413932686124</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.0934315361591832</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.09218212123002667</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.09149487148290195</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.09122139027884685</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.09124957268364864</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.09149426047858852</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.09189059019107708</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.09238914038309654</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.09295232923220069</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.09355170550826972</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.09416589040355175</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.09477900016932062</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.09537942785024468</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.09595889579884762</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.09651171424116195</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.09703419805262659</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.09752420609279938</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.09798077629708402</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.0984038361835468</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.09879397317778435</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.09915225267066152</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.09948007434705641</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.0997790593043567</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.1000509619925405</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.1002976021779517</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.1005208130492556</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.1007224023101038</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.100904123684472</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.10106765673062</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.1012145932424834</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.1013464288311071</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.1014645585370987</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.1015702755384737</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.101664772194814</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.1017491428148162</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.1018243876552442</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.1018914177592299</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.1019510603242443</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.1020040643577835</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.1020511064342388</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>-0.1020927964116146</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +2201,135 @@
       <c r="E13" t="n">
         <v>-0.03709033318781366</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.03812693911815965</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.03923532397192547</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.0402648310490728</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.04116193355796177</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.04191881700668529</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.04254715324102495</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.04306521039608412</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.04349188269999069</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.04384421490118908</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.04413662191068993</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.04438087808226673</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.04458641394337644</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.04476069974355535</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.04490961821897109</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.04503778958578433</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.04514884013201385</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.04524561789266934</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.04533036313625199</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.04540484204552092</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.04547045116923756</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.04552829896487548</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.04557926949028843</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.04562407220414934</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.04566328094182064</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.04569736443255802</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.04572671018460309</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.04575164315332772</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.04577244029452598</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.04578934186614803</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.04580256015865102</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.04581228619268174</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.04581869481263618</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.04582194851811604</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.04582220030680828</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.04581959574771183</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.04581427445985297</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.04580637113636057</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.04579601622527356</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.04578333635537649</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.04576845457666488</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.04575149046991099</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.04573256016756087</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>-0.04571177631834025</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +2347,135 @@
       <c r="E14" t="n">
         <v>0.0409265382810773</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.04722564539526621</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.05086418076718706</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0527269643573992</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.05339256905572853</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.05324949991159982</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.05256513792651208</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.05152739634918858</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.05027045592809921</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.04889108947100083</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.04745933020603726</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.04602566890319693</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.04462606639822045</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.04328555066943968</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.04202086702100331</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.04084247346680438</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.03975606843640966</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.03876377443098178</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.03786506205947833</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.03705747408463995</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.03633719296228553</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.03569948450700278</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.03513904277716609</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.03465025585443918</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.03422740817602003</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.03386483201562712</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.03355701831956909</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.0332986952043561</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.03308488089018631</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.03291091659628589</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.03277248389968251</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.03266561021462561</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.03258666535221658</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.03253235154296194</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.03249968882827997</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.03248599733374549</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.03248887761329684</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.03250618998833063</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.03253603358902303</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.03257672562929934</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.0326267813048655</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.03268489458988529</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.03274992011742518</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.03282085625760321</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +2493,135 @@
       <c r="E15" t="n">
         <v>-0.07937903308230085</v>
       </c>
+      <c r="F15" t="n">
+        <v>-0.07804107977351209</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.07795897208170613</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.07877278319248947</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.08021078081580209</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.08206699934318691</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.08418527297510914</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.08644760805390408</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.08876553677461482</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.09107356707469449</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.09332414120368221</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.09548370525699583</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.09752961449706983</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.09944767958338481</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.1012302123643421</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.102874466281019</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.1043813917288667</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.1057546447234607</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.1069998003397494</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.1081237321939148</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.1091341267213951</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.1100391068377466</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.110846944195025</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.1115658429681445</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.1122037811342009</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.1127683976934896</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.1132669163338876</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.1137060977428289</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.114092214186575</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.1144310411545071</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.1147278618465074</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.1149874810964366</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.1152142460009035</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.1154120710821034</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.1155844662750684</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.1157345664088743</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.1158651611614622</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.1159787247199591</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.116077444582274</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.1161632490993677</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.1162378334877974</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.1163026841447217</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.1163591011773891</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>-0.1164082191203708</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +2639,135 @@
       <c r="E16" t="n">
         <v>0.3057414209861583</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.3126535921849254</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3169942206979892</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.3194136555790738</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3204105120274857</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.3203687075120254</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.3195846061649258</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3182870693775202</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.3166524460024316</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.3148159367736083</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.3128803322803568</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.3109228194643894</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3090003429929922</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.3071538660723052</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.3054117789071214</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.3037926371046549</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.3023073666932514</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.3009610403139533</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.2997543060839317</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.2986845337025024</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.2977467296559609</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.296934263614662</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.2962394404665834</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.2956539463325887</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.2951691919746753</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.294776572971166</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.294467662700498</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.2942343514078332</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.2940689423209208</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.2939642138525047</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.2939134553122766</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.2939104822006652</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.2939496360276918</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.2940257726580217</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.2941342423991138</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.2942708643985523</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.2944318973784472</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.2946140082915734</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.2948142401206477</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.2950299797459886</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.2952589265668615</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.2954990623687647</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.2957486227748806</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.2960060704981695</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +2785,135 @@
       <c r="E17" t="n">
         <v>0.4713112311658895</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.4692528000564787</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4663265797394436</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.4629111321825142</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4592781938989233</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.4556178451183244</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4520591306289094</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.4486862100863773</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.4455506688969446</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.4426807432211029</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.4400881566645519</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.4377731501199793</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.4357281633027205</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.4339405180344411</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.4323943653216257</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.4310720901600714</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.4299553167467571</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.4290256188798337</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.4282650125766929</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.4276562877167878</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.4271832207894101</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.4268307000779695</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.4265847867300726</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.4264327293451549</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.4263629453851479</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.4263649794702838</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.4264294461709407</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.4265479630399883</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.4267130781996506</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.4269181956949508</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.4271575009738986</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.4274258881948977</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.4277188905511727</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.4280326144077156</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.4283636777433376</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.4287091531595553</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.4290665155441151</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.4294335943480329</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.4298085303416247</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.4301897366495316</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.4305758638211511</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.4309657686662497</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.4313584865719775</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.4317532070138167</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +2931,135 @@
       <c r="E18" t="n">
         <v>-0.1115761854353933</v>
       </c>
+      <c r="F18" t="n">
+        <v>-0.1161500458302411</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.1207160646917791</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.125057110725597</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.1290602406727586</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.1326774932159167</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.1359001050792557</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.1387419357862744</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.141229012520581</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.143393057920542</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.1452675716677907</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.1468855308319592</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.1482781059312915</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.1494740074888927</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.1504992185983651</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.151376959059868</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.1521277839276307</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.1527697556340213</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.153318651863121</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.1537881859200549</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.1541902255771869</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.1545350022305443</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.1548313059033265</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.1550866639671407</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.1553075029088593</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.1554992933651627</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.155666679178184</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.155813591522942</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.1559433493037141</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.1560587470664138</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.1561621316629683</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.1562554688550727</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.1563404009740458</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.1564182966711103</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.1564902937050546</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.1565573356263596</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.1566202031313655</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0.1566795407786924</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.1567358796839738</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.1567896567385561</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.1568412308333651</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0.1568908965106133</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.1569388954132286</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>-0.1569854258545494</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +3077,135 @@
       <c r="E19" t="n">
         <v>0.3398195773342705</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.3351540262021429</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3311507128776881</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.3276774420136798</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3246404564339536</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.3219729530186617</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3196260252642077</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3175623068620979</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3157518038378392</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.3141692874501034</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.312792722704607</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.3116023505237938</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3105801658311607</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3097096259999346</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3089754873183996</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3083637083651481</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3078613851574508</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.3074566988149344</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.3071388659185645</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.3068980871779758</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.306725493018859</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.306613086253508</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.3065536827102139</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.3065408509396365</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.3065688521082686</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.3066325810590264</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.3067275093400084</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.3068496308147977</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.306995410292048</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.307161735458063</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.3073458722667678</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.307545423836658</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.3077582928219729</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.3079826471627475</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.308216889072597</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.3084596270912584</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.3087096510084425</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.3089659094541707</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.3092274899465028</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.3094936011887643</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.3097635574136621</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.3100367645799103</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.3103127082372641</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0.3105909428874388</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +3223,135 @@
       <c r="E20" t="n">
         <v>0.2164571753352395</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.2210717400327779</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.223256881955296</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.2237706447275234</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2231424376549785</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2217476287691912</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2198559837149926</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.2176633373315851</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.215312608161312</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.2129080372647951</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.2105250831801115</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.2082174877309191</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.2060224571913781</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.2039645525304919</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.2020586676744588</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.2003123431017103</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.1987275808726837</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.1973022764121778</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.1960313499470229</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.1949076392318783</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.1939226007618141</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.1930668565028626</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.1923306157345615</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.1917039959654657</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.1911772624875795</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.190741002625379</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.1903862478826724</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.1901045548450084</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.1898880537519021</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.189729472035981</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.1896221387779373</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.1895599749021465</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.1895374730018519</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.1895496699052551</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.1895921144498872</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.1896608324013489</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.1897522900161505</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.189863357391847</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.1899912724580669</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.190133606228402</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.1902882297461231</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.1904532830083577</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.1906271460370068</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0.1908084121745731</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +3369,135 @@
       <c r="E21" t="n">
         <v>0.4934557908256902</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.4964940186279204</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4987069041304383</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5001146814356122</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5008147763815601</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5009329497556304</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5005973754148846</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.4999259048800255</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.4990207235595718</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.4979670072543174</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.4968336268739</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.4956747994744025</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.4945320796316787</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.4934363707423699</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.4924097979022827</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.4914673742431923</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.4906184414819795</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.4898678907525897</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.4892171818728017</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.4886651839833782</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.4882088613771208</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.4878438272265545</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.4875647858913711</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.4873658821264002</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.4872409731290017</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.487183837118011</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.4871883300952447</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.4872485006286533</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.4873586709121262</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.4875134909869018</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.4877079718341121</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.487937502046065</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.488197851934506</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.4884851682176284</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.4887959618260823</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.4891270908655362</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.4894757403552228</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.4898394000158368</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.4902158410952107</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.4906030929869311</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.4909994202072692</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.4914033001424763</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.4918134018556031</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0.4922285661444043</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +3515,135 @@
       <c r="E22" t="n">
         <v>0.2867673126644855</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.2856958281181939</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.2839099170242543</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.281657986024666</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.279127079291601</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.2764583233321081</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2737573252662884</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.2711017980039632</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.2685474636127835</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.2661327551317522</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.2638826059315774</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.2618115120693475</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.2599260025317431</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.2582266236347791</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.2567095245618499</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.2553677162018502</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.2541920632693728</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.2531720594474062</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.2522964266625531</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.2515535723655062</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.2509319326560102</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.250420224085227</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.2500076228273441</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.2496838864927582</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.249439431033704</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2492653728657644</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.2491535444090451</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.2490964896699212</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.2490874451799095</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.2491203105346354</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.2491896118937222</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.2492904610793748</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.2494185123205697</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.2495699182088388</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2497412860419998</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.2499296354183318</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.2501323576925562</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.2503471777056676</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.2505721180440044</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.2508054659612684</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.251045743004096</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.2512916773118486</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.2515421785100935</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.2517963150810269</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +3661,135 @@
       <c r="E23" t="n">
         <v>-0.1396422454068449</v>
       </c>
+      <c r="F23" t="n">
+        <v>-0.140539618284582</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.1423084408965082</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.1445572311348395</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.147045314343875</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.1496214812172795</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.1521891657911245</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.1546863026387479</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.1570733731830568</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.159326076900938</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.1614306624028382</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.1633808277641403</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.1651755782672451</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.1668176926482545</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.1683125940909211</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.1696675030315478</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.1708907944628638</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.1719915087235235</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-0.1729789803804183</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.1738625594687298</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.1746514056254436</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.1753543399484714</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.1759797425158781</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.1765354858444513</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.1770288964032738</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.1774667377729706</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.1778552102454441</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.1781999626511657</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.1785061130223948</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-0.1787782753811882</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.1790205905041839</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-0.1792367589807437</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.1794300752627927</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.1796034617167474</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.1797595019414539</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.1799004728205922</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.1800283749416625</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-0.1801449611433676</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-0.1802517630548339</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>-0.1803501155686534</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>-0.1804411792493809</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-0.1805259607234519</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.1806053311284287</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>-0.1806800427215592</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +3807,135 @@
       <c r="E24" t="n">
         <v>1.910752065323297</v>
       </c>
+      <c r="F24" t="n">
+        <v>1.80091247315366</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.719487132890602</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.656861512147715</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.607203106594948</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.566892151313288</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.533614483563504</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.505835284699107</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.482492386554847</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.462816500446049</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.446225051952973</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.432258857384828</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.420543838829234</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.410767442465</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.402663740215072</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.396003696623288</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.390588538170221</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.386245011716771</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.382821816197643</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.380186783787401</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.378224558646304</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.376834622607486</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.375929576801669</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.375433623275641</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.375281211201797</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.375415824250896</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.37578889264154</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.376358817387004</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.377090096578468</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.377952544910044</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.378920598496819</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.379972697611904</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.38109074041295</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.382259601118669</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.383466706470383</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.384701664689074</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.385955941519879</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.387222578342098</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.388495947709429</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1.389771542067372</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.391045791767477</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.392315908857353</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.393579753467453</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1.394835719938409</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +3953,135 @@
       <c r="E25" t="n">
         <v>0.3706009676757649</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.3605938492803307</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3524008820575367</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3458088137600746</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3405908811223209</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3365295811389474</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.333428087734987</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.331114569220452</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3294424310026939</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3282884853562932</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.3275502578217183</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.3271431019340371</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.3269974601441489</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.3270564157427819</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.3272735764761646</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.3276112790880345</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.3280390820146069</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.3285325069139037</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.3290719906299565</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.3296420132295905</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3302303726825317</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.3308275815433337</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.3314263652201672</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.3320212449756501</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.3326081917335663</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3331843391496342</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3337477463413023</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.3342972022493177</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.3348320648964844</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.3353521298756477</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.3358575232855367</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.3363486150750925</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.3368259493815621</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.3372901889760006</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.3377420713783088</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.3381823745855227</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.3386118906821926</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.339031405878799</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.3394416857603078</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.339843464727988</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.3402374387885198</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.3406242609894142</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.3410045389225102</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0.3413788338209475</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +4099,135 @@
       <c r="E26" t="n">
         <v>0.230718209348712</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.2138637211438687</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2005124941887462</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1899660064996171</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1816656909017193</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.1751658038124527</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1701103550986144</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1662143904564555</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1632491194200914</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.1610302411270748</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1594088351782952</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1582642625264026</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.157498618815368</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1570323777447938</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1568009448243118</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.156751909319083</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1568428348569398</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1570394691770137</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.1573142833423261</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.1576452727516695</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.1580149684364345</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.1584096189723241</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.1588185120571623</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.1592334112789041</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.1596480884566534</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.160057935635647</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.1604596436762383</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.1608509366236977</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.1612303528397705</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.1615970653311296</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.1619507349041349</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.1622913907670617</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.1626193340318981</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.1629350602687869</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.1632391978604502</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.1635324594094329</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.1638156038818086</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.1640894075385017</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.1643546420188458</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.1646120582081961</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.1648623747488451</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.1651062702467399</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.1653443783903375</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0.1655772853364755</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +4245,135 @@
       <c r="E27" t="n">
         <v>0.1170289852935385</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.1017357778606158</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.08953772709071706</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0798549599365181</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.07220513893901719</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.06619345657563454</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.06149961817940482</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.05786494963873635</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.05508086586011285</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.05297911530130708</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.05142379521748568</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.05030494111977536</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.04953343186935232</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.04903695529171197</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.0487568108981556</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.04864536615896473</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.04866402107546115</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.04878156863808765</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.04897286521644405</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.04921774546141326</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.0495001318730045</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.04980730084226689</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.05012927564474574</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.05045832330969593</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.05078853710559381</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.05111549001213794</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.05143594731691704</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.05174762861576529</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.05204901117704238</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.05233916797080783</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.05261763474877101</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.05288430145037325</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.05313932394783054</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.05338305276000758</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.05361597588494989</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.05383867334134296</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.05405178138358133</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.05425596467412228</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.05445189496885056</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.05464023510322633</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.05482162726478994</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.05499668470598949</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.05516598619441759</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0.05533007261890857</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +4391,135 @@
       <c r="E28" t="n">
         <v>0.9021560460444367</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.8852323444565428</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.8726253446050738</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8631546414551302</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8560279160963782</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8506924408957613</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8467488017117308</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8438994696865304</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.841917189247349</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8406248940508265</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.8398825044857205</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8395779482235021</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.8396208481987822</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.839937945939656</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.8404696879953778</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.8411676153534111</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.841992323554967</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.8429118398943061</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.843900313534315</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.8449369460833308</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.8460051109254698</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.8470916234447078</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.8481861337186511</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.8492806198281098</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.8503689646094217</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.8514466020922427</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.8525102224199834</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.8535575260073407</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.8545870192239884</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.8555978451221651</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.8565896437276865</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.857562437243127</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.8585165362066499</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.85945246323736</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.8603708914980417</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.8612725954336861</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.8621584117108265</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.8630292085975626</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.8638858622946507</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.8647292389603484</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.8655601813709692</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.8663794993297882</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.8671879630828121</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0.8679862991243494</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +4537,135 @@
       <c r="E29" t="n">
         <v>2.279257692352409</v>
       </c>
+      <c r="F29" t="n">
+        <v>2.167126917587876</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.077493613404459</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.004879851833996</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.945581108417097</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.896968407150862</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.857088944911156</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.824433766024578</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.797799569367612</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.776204052898851</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.758832086025622</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.744999930792458</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.734130268890479</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.7257338916712</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.71939565534787</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.714763291521193</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.711538226342309</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.709467885327706</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.708339148848383</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.707972734013237</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.708218345054748</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.708950475145912</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.710064768527526</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.711474869037903</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.713109693146117</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.714911074439136</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.716831733390941</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.718833531841457</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.720885976342811</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.722964938631812</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.725051565106609</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.727131350412589</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.729193353135984</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.731229534203707</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.73323420092406</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.735203541699165</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.737135238316454</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.73902814440174</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1.740882020107282</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.742697314430749</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.744474987730406</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.746216368032306</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.747923035630484</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.749596731273581</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +4683,135 @@
       <c r="E30" t="n">
         <v>0.7696536650748942</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.7485252808692856</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7321797909649588</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7195258070420032</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.709763616179593</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.7022887563603034</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6966338342751355</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.6924315568487741</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.6893899775560892</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.6872751616938622</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.6858986053049053</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6851078472829364</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.6847793108658686</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.6848127496454895</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6851268763849647</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.6856558810220771</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.686346628462101</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.6871563839581502</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.6880509536323407</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6890031558008831</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.6899915589100761</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.690999436498878</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.692013900325909</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.6930251807708089</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.6940260296320601</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.6950112250478427</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.6959771618499611</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.6969215134950114</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.6978429539931567</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.6987409301087881</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.6996154756358833</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.7004670608240127</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.7012964711000198</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.7021047101336337</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.7028929230617883</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.7036623363387726</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.704414211235463</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.705149808485258</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.7058703619788665</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.7065770597547885</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.7072710308255558</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.707953336628816</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.7086249661032835</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0.7092868335678486</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +4829,135 @@
       <c r="E31" t="n">
         <v>-0.3614671070737553</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3739982997181941</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.3845489574939234</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.3931464229947675</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.39998497372981</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.405316635720235</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.4093967938846802</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.4124594348905277</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.4147079858833328</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.416313956262244</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.4174191638747405</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4181393392214708</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.4185680089575566</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.4187801537545657</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.4188354432376574</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.4187810025683518</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.4186537344919799</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.4184822476070259</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.418288447939758</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.4180888479900839</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.4178956409954296</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.4177175809857718</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.4175607024736328</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.4174289077678376</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.417324444989958</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.4172482958279788</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.417200488754231</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-0.4171803507325195</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.4171867082262299</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.4172180464987112</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>-0.4172726346923673</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.4173486229229905</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.4174441165834263</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.4175572321783643</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.4176861382804308</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.417829084583238</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.4179844215106184</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-0.4181506124073613</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.4183262399725567</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.4185100082914067</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.4187007415660781</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-0.4188973804332439</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.4190989765789005</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>-0.4193046862143538</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +4975,135 @@
       <c r="E32" t="n">
         <v>0.6304518159649113</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.615099915221062</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6035429720719488</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.5948221853378681</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.5882537385291355</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5833396012096851</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5797097026163575</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.5770840083963679</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5752472260949165</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5740316169904607</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5733050825627077</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5729627337980739</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5729207969894093</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5731121142391381</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5734827528802194</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.5739894015557322</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5745973361284875</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.5752788072166279</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.5760117462714437</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.5767787171095207</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.5775660600018647</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.5783631892071452</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.5791620144009321</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.5799564632120732</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.5807420869515291</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.5815157352104974</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.5822752877104287</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.5830194338710204</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.5837474921999123</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.5844592629189754</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.5851549083087161</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.5858348561314186</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.586499722225777</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.5871502489802526</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.5877872569110907</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.5884116070104146</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.5890241719030395</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.589625814167944</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.5902173704500921</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.5907996402174909</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.5913733782128232</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.5919392898136866</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.5924980286546263</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0.5930501959814282</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +5121,135 @@
       <c r="E33" t="n">
         <v>0.8169796281534417</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8066007951877421</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.7987581316150105</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.7928753958710071</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7885191481406502</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.7853579500593934</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7831352851830625</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.78165083496808</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.780747072099542</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.7802994263633373</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.7802089510049115</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7803967869116771</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.7807999414724398</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.7813680396355508</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.7820608001408783</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.7828460570470183</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.7836981948163395</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.7845969000220507</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.7855261579669784</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.7864734407992422</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.7874290469891566</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.7883855616910198</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.7893374145705113</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.7902805168701188</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.7912119633408597</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.7921297875664199</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.793032761413736</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.7939202310514371</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.7947919833181049</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.7956481372904788</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.7964890567645072</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.7973152800674499</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.7981274642016531</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.7989263408054844</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.7997126818230875</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.8004872731164352</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.8012508945416504</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.8020043052555045</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.8027482332243977</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.8034833680827147</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.804210356634998</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.8049298004208965</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.8056422548666926</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0.8063482296352749</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +5267,135 @@
       <c r="E34" t="n">
         <v>-0.7761785810248246</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7873682835765183</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.7964153726162843</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.8036351959926451</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.8093395096329772</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.8138110008728884</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.8172939100210538</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.8199930862470671</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.8220770832904376</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.8236828257839779</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.8249205506119121</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.8258784094729338</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.8266264929478391</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.8272202281636721</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.8277031911322182</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.8281094088553421</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.8284652328159015</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.8287908596061424</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.8291015640603041</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.8294086991859003</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.8297205070910153</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.83004277654145</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.8303793757898584</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.8307326837230719</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.8311039379348024</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.8314935148161952</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-0.8319011539661177</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>-0.8323261369949156</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.8327674290034797</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-0.8332237895673693</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>-0.8336938588701972</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>-0.8341762236561104</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-0.8346694668659004</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-0.8351722041527195</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>-0.835683109916613</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-0.8362009350324058</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>-0.8367245180572933</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-0.8372527913801618</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>-0.8377847835038731</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-0.8383196184260155</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.8388565128958012</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>-0.8393947721689867</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>-0.839933784753811</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>-0.8404730165348114</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +5413,135 @@
       <c r="E35" t="n">
         <v>0.8229067353666535</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.8213412389846213</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.8207436130147804</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8207760627649016</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8212235346997792</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.8219464477070682</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8228522057230614</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.823877981490034</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8249802348379242</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.8261282512284841</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.8273000866756141</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8284799627873235</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.8296565457950141</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.8308217736731911</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.8319700309164143</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.8330975501706024</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.8342019667978988</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.8352819801810614</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.836337092106858</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.8373674025543699</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.8383734493581106</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.8393560820901359</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.8403163630249049</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.8412554897491813</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.8421747351695037</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.8430754015364645</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.843958785758699</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.8448261537873554</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.8456787222557561</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.8465176458858821</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.8473440094411148</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.8481588232257942</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.8489630213155613</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.8497574618549225</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.8505429288852596</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.8513201352718345</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.8520897263856502</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.85285228426818</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.8536083320664097</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.8543583385743293</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.8551027227567346</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.8558418581633921</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.8565760771675242</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0.8573056749832749</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +5559,135 @@
       <c r="E36" t="n">
         <v>0.7869918562750591</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.785523927920979</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.785117118902389</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.7854187893229161</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7861958862131146</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7872905110005612</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.7885932259514383</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7900267441599813</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.791535745789144</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7930803503880872</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.794631805544197</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7961695468188067</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7976791279398791</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.799150720036743</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.8005779954565827</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.8019572805169581</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.8032869025955288</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.8045666818383334</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.805797533166577</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.8069811540434148</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.8081197798706019</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.8092159932311861</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.8102725762510831</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.8112923975797208</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.8122783271662739</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.8132331733049637</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.8141596374487997</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.815060283116428</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.8159375158887703</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.8167935720438957</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.8176305138339267</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.8184502297846449</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.8192544387106383</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.8200446963973063</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.8208224041146938</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.8215888183042733</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.8223450609245202</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.8230921300595331</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.8238309104913433</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.8245621840145534</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.8252866393346355</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.8260048814411916</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.8267174403869428</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0.8274247794340106</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +5705,135 @@
       <c r="E37" t="n">
         <v>0.7458871001622034</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.7464162712241077</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7471608011893707</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.7481352367182504</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.7493155659563034</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.7506618412844055</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.7521305753138469</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.7536810060306781</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.7552778416312869</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.7568920773946841</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.7585008220784902</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7600866675681819</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.7616368943441666</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.7631426651656052</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.764598280082316</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.7660005224066697</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.7673481023976851</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.7686411941153475</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.7698810559571432</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.7710697238046128</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.7722097658155263</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.7733040887840944</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.774355787172606</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.7753680271460559</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.7763439590993486</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.7772866532060513</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.7781990534250959</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.779083946181128</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.7799439405965471</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.7807814577123837</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.7815987266047884</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.7823977856968442</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.7831804878930513</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.7839485084360877</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.7847033546109212</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.7854463766073254</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.7861787790046392</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.786901632467501</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.787615885342849</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.7883223749305334</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.7890218382657219</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.7897149223036457</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.7904021934384927</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0.7910841463203501</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +5851,135 @@
       <c r="E38" t="n">
         <v>0.6770288097181957</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6735148572259333</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6707813574408246</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.6687286212878137</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6672559636093593</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6662697420387759</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.6656863544039187</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6654328946856863</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6654467499420502</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6656747481671406</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.6660721482901476</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6666016116635195</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.667232221138062</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.667938577724373</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.6686999865295844</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.6694997340844904</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.6703244540696401</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6711635757496114</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.6720088480961027</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.6728539320690161</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.6736940535126202</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.6745257094161186</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.6753464207584329</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.6761545257220101</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.6769490076639749</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.6777293528380287</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.6784954334435191</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.6792474121247942</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.6799856645465977</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.680710717126522</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.6814231974131258</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.6821237949597977</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.6828132308625521</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.6834922344080228</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.6841615255196342</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.684821801898944</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.6854737299390573</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.6861179386411782</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.6867550158969298</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.6873855066108989</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.6880099122325085</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.6886286913461329</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.6892422610353742</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0.689850998793428</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +5997,135 @@
       <c r="E39" t="n">
         <v>0.6058901318596749</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.6068224262557982</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.6079857288476137</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.6092893435977575</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.6106688101359597</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.6120784497039125</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.6134862803884871</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.6148703932065476</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.6162163002091642</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.6175149657476906</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.6187613345515521</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6199532280676626</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.6210905165014848</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.6221744983118884</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.6232074362427514</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.6241922116960171</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.6251320687139742</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.6260304259108922</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.62689073998579</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.6277164084089588</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.6285107018428323</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.6292767190871054</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.6300173590188962</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.6307353052725895</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.6314330203751272</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.6321127467976951</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.6327765129602421</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.6334261426724385</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.6340632668439732</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.6346893365710952</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.6353056369218697</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.6359133009124676</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.6365133233006227</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.6371065739276195</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.6376938104226323</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.6382756901474997</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.6388527813096799</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.6394255732091206</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.6399944856134122</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.6405598772767507</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.6411220536334596</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.6416812737073495</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.6422377562850291</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0.642791685405256</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +6143,135 @@
       <c r="E40" t="n">
         <v>0.7797503431331393</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7791396608367565</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.7791912597910351</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.7797055313374219</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7805351922112179</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.7815733926400781</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.7827435032963411</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.7839910579241675</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7852776750261528</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.7865765854495654</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.7878693857380072</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7891436960411073</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7903914730367418</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.791607792554701</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.792789967809259</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.7939369076220141</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.7950486469464143</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.7961260018739944</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.7971703152723453</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.7981832689713324</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.7991667452332283</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.8001227250146492</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.801053213885627</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.8019601888517323</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.8028455610299006</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.8037111503635027</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.8045586694680518</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.8053897143721785</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.8062057604253878</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.8070081620304513</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.8077981551560546</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.8085768618170243</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.8093452958911943</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.8101043697853483</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.8108549015762693</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.8115976223431246</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.8123331834790504</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.8130621638266271</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.813785076526868</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.8145023755066869</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.8152144615574127</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.8159216879782781</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.81662436577512</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0.817322768416777</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +6289,135 @@
       <c r="E41" t="n">
         <v>0.5754858681230826</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5767812196624407</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5777724705539035</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5786215505976091</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5794170481878</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5802042611502028</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5810035266605943</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.5818212805181616</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5826566434363781</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.5835052751961491</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.5843615721439411</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.585219868991675</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.586075049373632</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.5869228115900145</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5877597388877821</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.5885832641134376</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5893915821547299</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.5901835413596034</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.590958531605958</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.5917163785324389</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.5924572485627054</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.5931815664927708</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.5938899457803539</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.5945831307939003</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.5952619498488698</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.5959272776960054</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.5965800061171331</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.5972210213590322</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.5978511872527238</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.5984713329988275</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.5990822447346047</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.5996846601267244</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.6002792653513822</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.60086669392841</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.6014475269680505</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.6020222944686737</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.6025914773717381</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.6031555101379479</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.6037147836569501</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.6042696483432836</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.6048204173046555</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.6053673694960519</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.6059107527955169</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0.606450786955497</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +6435,135 @@
       <c r="E42" t="n">
         <v>0.6636685323868814</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.6590956756692379</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6559667563357938</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.6539383444618989</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.6527541536225011</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.6522190013366393</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.652181633812398</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.6525232933458719</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.6531499432674125</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.6539868152888383</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.6549744462814124</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.6560656921801702</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.6572234050777047</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.658418579645714</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.6596288467044272</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.6608372342907188</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.662031141886869</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.6632014887591744</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.6643420068631013</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.665448654956826</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.6665191348283227</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.667552493670321</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.6685487990711463</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.6695088750710114</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.6704340893985019</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.6713261834283715</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.6721871376358128</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.6730190663942742</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.6738241368951917</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.674604507775646</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.6753622837382549</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.6760994830492035</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.6768180153165736</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.6775196673924134</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.6782060956176283</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.6788788229472521</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.6795392397625383</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.6801886074023707</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.680828063635717</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.6814586294545223</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.6820812166971881</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.6826966361206577</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.6833056056276279</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0.6839087584275777</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +6581,135 @@
       <c r="E43" t="n">
         <v>0.695175488057222</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6936027254998522</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6924845746553371</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6917796595455084</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6914333389623144</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6913885590955262</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.6915912724945679</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.691992887699983</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6925511161972413</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.6932299761725219</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.6939993754376224</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6948345076560326</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.695715190225598</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.6966252123978628</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.6975517283265023</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.698484710555065</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.6994164687012562</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.7003412322104089</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.7012547929912747</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.702154202326821</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.7030375159758055</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.7039035814360073</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.7047518616823425</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.7055822901769243</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.7063951524871103</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.7071909903914846</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.7079705248742083</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.7087345948903568</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.7094841092220261</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.7102200091352689</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.710943239892416</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.711654729475648</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.7123553731393693</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.7130460226347364</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.7137274791435254</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.7144004891240626</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.7150657424126745</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.7157238720432249</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.7163754553476784</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.7170210159848309</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.7176610266146691</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.7182959119942787</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.7189260523195653</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.7195517866768201</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +6727,135 @@
       <c r="E44" t="n">
         <v>0.7012101528234649</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.7027436933377283</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.7043249651698004</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.7059372904795931</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.7075613166451895</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.709178423298064</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.7107725523128731</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.7123309296803642</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.7138441177839611</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.715305715052352</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.7167119047099434</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.7180609694593151</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.7193528333536177</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.7205886584621712</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.7217705048933326</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.7229010527725204</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.7239833801344197</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.7250207890143369</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.7260166718974926</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.7269744112930832</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.7278973060955513</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.7287885193466158</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.7296510429071723</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.7304876753427639</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.7313010100082898</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.7320934308915674</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.7328671142525748</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.733624034488963</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.7343659729816362</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.7350945289384535</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.7358111314694352</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.736517052301724</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.7372134186840243</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.7379012261441964</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.7385813508549844</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.739254561435557</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.7399215300739561</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.7405828429004885</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.741239009576839</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.7418904720921524</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.7425376127771063</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.7431807615613946</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.7438202025101445</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0.7444561796814897</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +6873,135 @@
       <c r="E45" t="n">
         <v>0.710063630095213</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.7109216793917013</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.712454234957843</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.7144152336398469</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.7166350086212296</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.7189946260498833</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.7214100481308399</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.7238219584033003</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.7261889587885652</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.7284828493321099</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.7306852457156365</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.7327850907525507</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.7347767862691594</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.7366587703336017</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.7384324234948813</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.7401012237715329</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.7416700930722441</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.7431448928506683</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.7445320371232986</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.7458381982774877</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.7470700864187236</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.7482342869954393</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.7493371445001016</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.7503846824382281</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.751382551656099</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.7523360006424331</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.7532498626532805</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.7541285555139863</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.7549760907728876</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.7557960895532758</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.7565918030002897</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.7573661356694469</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.7581216705708996</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.7588606948824818</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.7595852255868994</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.760297034483768</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.7609976721836851</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.761688490815947</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.7623706652794959</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.7630452129430232</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.763713011758738</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.764374816798538</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.7650312752538884</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0.7656829399639615</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +7019,135 @@
       <c r="E46" t="n">
         <v>-1.300518367962082</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.301835696365918</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.302952957536291</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1.303874752478401</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1.30463441805692</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1.305274524268042</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.305836994467009</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-1.306358594591327</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-1.306869328448821</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.307392334619024</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.307944498458573</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.308537349326935</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-1.309178016476287</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-1.309870131317116</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-1.31061462677738</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1.31141041826058</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-1.31225496802863</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-1.313144743010581</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-1.314075579238814</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-1.31504296669543</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-1.316042267628474</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-1.317068880093618</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-1.318118356980836</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>-1.3191864892987</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-1.320269361108259</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-1.321363382264766</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>-1.322465304048784</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>-1.323572221843468</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-1.32468156822972</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-1.325791099210183</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>-1.326898875721227</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>-1.328003242134219</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>-1.329102803069921</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>-1.330196399540629</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>-1.331283085183079</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-1.332362103141901</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>-1.333432864000493</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>-1.334494925026917</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>-1.335547970900771</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>-1.336591796008242</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>-1.337626288332393</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>-1.338651414920703</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-1.339667208879114</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>-1.340673757818782</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +7165,135 @@
       <c r="E47" t="n">
         <v>-1.011561181876443</v>
       </c>
+      <c r="F47" t="n">
+        <v>-1.012655424569697</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1.013548799882875</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-1.01425726658427</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-1.014816002352715</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1.015265157268449</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.015642768665109</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.015981645467513</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-1.016308386187769</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.016643488647768</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-1.017001969595876</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.017394176793069</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-1.017826626664104</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-1.018302785263784</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-1.018823757106187</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-1.019388871595431</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-1.019996169762603</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-1.020642800147058</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-1.021325335045238</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-1.022040018739151</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-1.02278295869819</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-1.023550269672241</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-1.024338179361886</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>-1.025143103121698</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-1.025961694004234</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-1.026790873419957</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-1.027627846782153</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-1.02847010772353</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-1.029315433803734</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-1.030161876062921</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>-1.031007744303551</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>-1.031851589588804</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>-1.032692185120327</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-1.033528506390466</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>-1.034359711285769</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>-1.035185120641702</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>-1.036004199606366</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>-1.036816540057814</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>-1.037621844230368</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>-1.038419909635877</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>-1.039210615312636</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>-1.039993909394593</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-1.040769797964081</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>-1.041538335130466</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +7311,135 @@
       <c r="E48" t="n">
         <v>-0.8776415388412124</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8778655788085263</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.8779582858011066</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.8779288160638165</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.877808010354392</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.8776325371192006</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.8774371559993251</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.8772513768535359</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.87709843406439</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.8769954237057827</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.8769539728590428</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.8769811028491007</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.8770801113413603</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.8772513885032769</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.877493131653947</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-0.8778019490032157</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-0.8781733563927607</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.8786021771434833</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-0.8790828574304662</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.8796097098750804</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0.8801770972864095</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-0.8807795672683152</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.8814119470434254</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-0.8820694064941859</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.8827474961648714</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>-0.8834421658421255</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>-0.8841497683451559</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.884867052306764</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-0.8855911470029476</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-0.8863195416790398</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>-0.8870500613106738</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>-0.8877808403150809</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-0.8885102953800763</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>-0.8892370982934708</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>-0.8899601494247923</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-0.8906785523254526</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>-0.8913915897654526</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>-0.8920987014079792</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>-0.8927994632322969</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>-0.8934935687456135</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>-0.8941808119720827</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>-0.8948610721686016</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-0.8955343001897131</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>-0.8962005064055235</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +7457,135 @@
       <c r="E49" t="n">
         <v>-0.6443153756352643</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6442373968374688</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.6440823463705141</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.6438560575476044</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.6435811255175059</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.6432843943951883</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.6429910027853434</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.6427219030459322</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.6424931694771233</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.6423161816589602</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.6421981932486835</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6421430293560669</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.6421517828859606</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.6422234492479307</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.642355475692621</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.6425442206866204</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.6427853281834993</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.6430740258251342</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-0.6434053574744377</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.6437743603995604</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.6441761966501057</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.6446062470962852</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.6450601754601825</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-0.6455339685663162</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.6460239580295574</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.6465268277029766</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.6470396104298637</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.6475596769775812</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-0.64808471946641</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-0.6486127311329234</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>-0.6491419838732618</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>-0.649671004686099</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-0.6501985518681658</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>-0.6507235915980104</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>-0.6512452753683817</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-0.6517629185874168</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>-0.6522759805577831</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>-0.6527840459560454</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>-0.6532868078674893</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>-0.6537840523808188</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>-0.654275644709466</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>-0.6547615167791802</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>-0.6552416562029164</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>-0.6557160965520904</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +7603,135 @@
       <c r="E50" t="n">
         <v>-0.0647164073856812</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.0656591731678513</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.06626284705356078</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.06661643758161478</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.06678952671120969</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.06683572143242589</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.06679583131682305</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.06670057279871477</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.06657277961758591</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.06642917038041421</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.06628174522307695</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.06613888257551118</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.06600619785191528</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.06588721481175148</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.06578388999947522</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.06569702195234277</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-0.06562656987237872</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.06557190099406529</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-0.06553198166320683</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-0.06550552390341416</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-0.06549109675527838</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.06548720974781047</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.06549237436324587</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.06550514818085426</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.06552416545582643</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.06554815714856792</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.06557596282550016</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>-0.06560653637314737</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-0.06563894707903881</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-0.06567237731758395</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>-0.06570611782252939</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>-0.06573956131884275</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>-0.06577219511715766</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>-0.06580359313623141</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>-0.06583340770751295</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>-0.06586136142625111</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>-0.06588723924175047</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>-0.0659108809222432</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>-0.06593217398475912</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>-0.06595104714515961</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>-0.06596746431633144</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>-0.06598141916191168</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>-0.06599293019756079</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>-0.06600203642069699</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +7749,135 @@
       <c r="E51" t="n">
         <v>-0.8623191614309024</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8616559580888584</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.8609763701151295</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.8602854853559809</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.8596033458954137</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.85895382463211</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.858359044524667</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.8578369414732908</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.8574005443931173</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.8570581410535905</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.8568138554137109</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8566683735154309</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-0.856619678300458</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.856663724505589</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-0.8567950245825749</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-0.8570071382702852</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.8572930696735513</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.8576455809839481</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-0.8580574339497754</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.8585215703948583</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-0.8590312423763191</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.8595801014569067</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.8601622553226898</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>-0.8607722987486391</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-0.8614053247760179</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>-0.8620569209482325</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>-0.8627231545645077</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>-0.8634005501498696</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-0.8640860616957968</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-0.864777041686273</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>-0.865471208476029</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>-0.8661666132190032</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>-0.8668616072440201</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>-0.8675548105309837</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>-0.8682450817454237</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>-0.8689314901340166</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>-0.8696132894618875</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>-0.8702898940782133</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>-0.8709608571248808</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>-0.8716258508495258</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>-0.8722846489455941</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>-0.8729371108152372</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>-0.8735831676333441</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>-0.874222810080848</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +7895,135 @@
       <c r="E52" t="n">
         <v>-0.8623191614309024</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8616559580888584</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.8609763701151295</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.8602854853559809</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.8596033458954137</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.85895382463211</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.858359044524667</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.8578369414732908</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.8574005443931173</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.8570581410535905</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.8568138554137109</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8566683735154309</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.856619678300458</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.856663724505589</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.8567950245825749</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.8570071382702852</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.8572930696735513</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.8576455809839481</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-0.8580574339497754</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.8585215703948583</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-0.8590312423763191</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-0.8595801014569067</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-0.8601622553226898</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-0.8607722987486391</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-0.8614053247760179</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>-0.8620569209482325</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-0.8627231545645077</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-0.8634005501498696</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-0.8640860616957968</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-0.864777041686273</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>-0.865471208476029</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>-0.8661666132190032</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>-0.8668616072440201</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>-0.8675548105309837</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>-0.8682450817454237</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>-0.8689314901340166</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>-0.8696132894618875</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>-0.8702898940782133</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>-0.8709608571248808</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>-0.8716258508495258</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>-0.8722846489455941</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>-0.8729371108152372</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>-0.8735831676333441</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>-0.874222810080848</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +8041,135 @@
       <c r="E53" t="n">
         <v>-1.134541061560036</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.136147389479252</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.137475316014494</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-1.138527130552368</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-1.139340977121321</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.139967985780766</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-1.140460208777876</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-1.140864755911765</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1.141221401304626</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.14156206568421</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-1.141911253259827</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.14228692126785</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-1.142701494037758</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-1.143162869024429</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-1.143675339890311</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1.144240405366955</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-1.144857456474305</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-1.145524347095583</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-1.146237858805798</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-1.146994073101664</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-1.147788664446862</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-1.14861712679086</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-1.14947494499043</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>-1.150357721167887</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>-1.151261264646094</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>-1.152181652793109</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-1.1531152689285</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>-1.15405882240184</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-1.155009355050575</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-1.155964237470723</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>-1.156921157877572</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>-1.157878105781574</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>-1.158833352243735</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>-1.159785428092676</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>-1.160733101170847</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-1.161675353420052</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>-1.1626113584075</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>-1.163540459725414</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>-1.164462150562913</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>-1.165376054642863</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>-1.166281908633573</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>-1.167179546081561</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>-1.168068882863515</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>-1.168949904120097</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +8187,135 @@
       <c r="E54" t="n">
         <v>-0.1806631624941331</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.1803734597841115</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.1799198325184757</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.1793777927891659</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.1787991692044731</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.1782194994177237</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.1776628477660034</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.1771450423167791</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.1766759204557239</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.1762609346604493</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.175902331168483</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1756000329268804</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.1753523103418462</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.17515629483454</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-0.1750083729003169</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-0.174904487571671</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-0.174840367208836</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.174811696843307</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-0.1748142439916517</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.1748439484268681</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-0.17489698354183</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-0.1749697954846835</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-0.1750591250791467</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>-0.1751620165930568</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>-0.1752758166389794</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>-0.1753981658479249</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>-0.1755269854264655</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>-0.1756604602696698</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-0.1757970199418932</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-0.1759353185419648</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>-0.1760742142281765</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>-0.1762127489828172</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>-0.1763501290383097</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>-0.1764857062609224</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>-0.1766189606881357</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>-0.1767494843374721</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>-0.1768769663440816</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>-0.1770011794383475</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>-0.1771219677405144</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>-0.1772392358245463</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>-0.1773529389861902</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>-0.1774630746389885</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>-0.1775696747554091</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>-0.1776727992673277</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +8333,135 @@
       <c r="E55" t="n">
         <v>-1.0271191193432</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.029749346355077</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1.03175063789536</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-1.033268366343516</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1.034425994693747</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-1.035323943886945</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1.036041709795145</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-1.036640979438862</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-1.037168787384609</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.037660348314467</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-1.038141465321599</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.038630522594245</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-1.039140110296687</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-1.039678338347797</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-1.040249892680727</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-1.040856880530652</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-1.041499503717314</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-1.042176592018246</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-1.042886022906589</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-1.043625049133449</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-1.044390551729034</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-1.045179232820178</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-1.04598776007178</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>-1.046812872439018</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-1.047651455173443</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-1.048500590587018</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-1.049357589887405</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-1.050220010410929</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-1.051085661761383</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-1.051952603684694</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>-1.052819137948207</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>-1.053683796029857</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>-1.054545324040904</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>-1.055402665992812</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>-1.056254946263166</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>-1.057101451907715</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>-1.057941615297829</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>-1.058774997428004</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>-1.059601272130968</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>-1.060420211353553</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>-1.061231671580764</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>-1.062035581445023</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>-1.062831930519509</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>-1.063620759266487</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +8479,135 @@
       <c r="E56" t="n">
         <v>-0.9108696238554578</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.9123144132438041</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.9132563243842409</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.9138754565661555</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.9142971096790002</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.9146080273255675</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.9148677345364405</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.9151164726643926</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.9153807818183655</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.9156774547420062</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.9160163581492144</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.9164024610086283</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-0.9168373026955</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.9173200616427741</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-0.9178483361062275</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-0.9184187153336762</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-0.919027196655982</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.919669488341748</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-0.920341227165463</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.9210381319860768</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-0.921756109188376</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>-0.9224913219130374</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>-0.9232402321295167</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>-0.9239996224760095</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>-0.9247666031897037</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>-0.9255386082322534</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>-0.9263133837783386</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>-0.9270889715079647</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>-0.9278636885748647</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-0.9286361056770567</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>-0.9294050243041172</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>-0.9301694539586078</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>-0.9309285899308883</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>-0.9316817920352183</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>-0.9324285645812318</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-0.9331685377511292</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>-0.9339014504732933</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>-0.9346271348227665</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>-0.9353455019341897</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>-0.9360565293803156</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>-0.936760249946437</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>-0.9374567417160209</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>-0.9381461193737068</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>-0.9388285266273477</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +8625,135 @@
       <c r="E57" t="n">
         <v>-0.9715356867413153</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.971914540504126</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.9724126858102141</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.9730151233669949</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.9737084726416301</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.9744807790010418</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.975321208317071</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.9762198159959081</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.9771674137455492</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.9781555087185628</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.979176283825109</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9802225952423534</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.9812879721129835</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.9823666105719324</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-0.9834533590158693</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-0.9845436943529878</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-0.9856336904340972</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-0.9867199804740134</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-0.9877997153857698</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-0.9888705198046519</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-0.9899304473180176</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-0.9909779361223396</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-0.9920117660445761</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>-0.9930310176114167</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-0.9940350336347361</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>-0.9950233836052012</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>-0.9959958310454489</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>-0.9969523038651795</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-0.9978928676780778</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-0.9988177019801264</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>-0.9997270790464798</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>-1.000621345376013</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>-1.001500905495936</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>-1.002366207930892</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>-1.003217733139665</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-1.004055983226304</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>-1.004881473239695</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>-1.005694723885382</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>-1.006496255484745</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>-1.007286583028925</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-1.008066212187542</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>-1.00883563614494</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>-1.00959533314903</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>-1.010345764669735</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +8771,135 @@
       <c r="E58" t="n">
         <v>-1.131635045907132</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.129239186987724</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.127321588069766</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1.125884917206509</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1.124898128742126</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1.124315427873989</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1.124086196394244</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1.124160170868237</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.124490075880385</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.12503286409699</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-1.125750180768929</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.126608393889094</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-1.127578384444869</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-1.128635210688076</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-1.129757714520351</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-1.130928111030568</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-1.132131585707354</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-1.133355913516686</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-1.134591107469211</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-1.135829100112051</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-1.137063458726099</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-1.138289133365791</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-1.139502235903391</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-1.140699847708164</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-1.141879853350847</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>-1.143040797672724</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>-1.144181763626578</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>-1.145302268436515</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-1.146402175803257</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-1.147481622079737</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>-1.148540954544742</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>-1.149580680101064</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>-1.150601422913617</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>-1.151603889679168</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>-1.152588841381095</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-1.153557070529443</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>-1.154509383018647</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>-1.155446583853233</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>-1.156369466096383</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>-1.157278802488588</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>-1.158175339264564</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>-1.159059791767433</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-1.159932841520739</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>-1.160795134472242</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +8917,135 @@
       <c r="E59" t="n">
         <v>-0.8200402476062165</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8179071066895529</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.8159043036482572</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.814131243110167</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.8126293788359052</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.8114075807519554</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.8104567405634272</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.8097582637498234</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.8092890442867067</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.8090243867406099</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.808939712305131</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.8090115337013436</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.8092179847294715</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.8095390759291857</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-0.8099567811220523</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-0.8104550200269591</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-0.8110195781936916</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-0.8116379907227621</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-0.8122994069343433</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.8129944471721992</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-0.8137150590171085</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-0.8144543775815423</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-0.8152065928011687</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>-0.8159668254414844</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-0.8167310127168068</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>-0.8174958038555805</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>-0.8182584655620804</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>-0.8190167970672576</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-0.8197690542941962</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-0.8205138825609584</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>-0.8212502571872402</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>-0.8219774313481218</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>-0.8226948905186244</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>-0.8234023128696784</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>-0.8240995350041836</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>-0.8247865224571562</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>-0.8254633444235795</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>-0.8261301522193381</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>-0.8267871610228941</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>-0.8274346344870456</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>-0.828072871850322</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>-0.8287021972158054</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>-0.8293229507010338</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>-0.8299354811959648</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +9063,135 @@
       <c r="E60" t="n">
         <v>-0.4617707779593904</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4592707587079334</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.4569899639748298</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.4550378140664294</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.4534452398726974</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.4522021270615816</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.4512785166322557</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.450636409968129</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.4502361742823967</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.4500398671937936</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.4500128203500059</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4501242536733397</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-0.4503473629024288</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.4506591331879276</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.4510400220040636</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-0.4514735915859347</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-0.4519461348475929</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.4524463179398814</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-0.4529648507326026</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4534941897843355</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-0.4540282746209232</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-0.454562296123984</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-0.4550924948061874</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>-0.4556159862978166</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-0.4561306112429734</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-0.4566348068595796</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-0.4571274975705906</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-0.4576080023148904</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-0.4580759563661372</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-0.4585312457094446</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>-0.4589739522396366</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>-0.4594043082456694</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>-0.4598226588310996</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>-0.4602294310892438</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>-0.4606251090039022</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-0.4610102131828179</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>-0.4613852846522937</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>-0.461750872048687</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>-0.4621075216370042</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>-0.4624557696696872</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-0.462796136671061</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>-0.4631291232958917</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>-0.4634552074650968</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>-0.4637748425288144</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +9209,135 @@
       <c r="E61" t="n">
         <v>0.380407214378859</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3811091873175381</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3817941624590178</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.3824590450265755</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3831005094462512</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3837161791686896</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.384304911381892</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3848666922006267</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.3854023952568734</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3859135218389648</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.3864019715803333</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3868698588716211</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.3873193748206535</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.387752688561983</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.3881718801616443</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.3885788977655441</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.3889755327571452</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.3893634079404291</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.3897439749032957</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.3901185176645315</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.3904881604584767</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.3908538780893689</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.3912165077239075</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.3915767613166121</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.3919352381041704</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.3922924367830763</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.3926487671155678</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.3930045608043368</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.3933600815458069</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.3937155342216627</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.3940710732237822</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.3944268099324459</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.394782819384439</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.3951391461784617</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.3954958096716696</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.395852808524347</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.3962101246505257</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.3965677266315066</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.3969255726471854</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.3972836129772588</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.3976417921210391</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.3980000505809959</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.3983583263514076</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0.3987165561497799</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +9355,135 @@
       <c r="E62" t="n">
         <v>-1.219550637458641</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.223894826038346</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1.227148392227761</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1.229729070759805</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1.231896194548662</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1.233809483743757</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1.235566633506778</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-1.237226956780964</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-1.238826104177934</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.240385174950874</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-1.241916341741204</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.243426322810071</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-1.244918529266795</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-1.246394396703789</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-1.247854213505522</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-1.249297637034263</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-1.250724014959937</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-1.252132583963107</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-1.253522590601107</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-1.254893362365554</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-1.256244346666779</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>-1.257575129111208</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>-1.258885438455224</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>-1.26017514309711</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>-1.261444242347633</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>-1.262692854660411</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-1.263921204298614</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>-1.265129607437666</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-1.26631845837552</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-1.267488216293098</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>-1.268639392845977</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>-1.269772540753588</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>-1.270888243470564</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>-1.271987105966904</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>-1.2730697466031</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>-1.274136790058489</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>-1.275188861252798</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>-1.276226580189434</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>-1.277250557642985</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>-1.278261391610997</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>-1.279259664450609</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>-1.280245940622973</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>-1.281220764972184</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>-1.282184661470085</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +9501,135 @@
       <c r="E63" t="n">
         <v>-0.622622779706745</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6133762916996115</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.6058479377947654</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.5997200921590241</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.5947466579924015</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.5907327230067129</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.5875207110955454</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.584981005743695</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.5830055470641764</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.5815033728989656</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.5803974243868979</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5796221782692899</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.5791218280665767</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.57884883893894</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-0.5787627657338216</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-0.5788292639498103</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.5790192481553635</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.5793081676430698</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-0.579675378474379</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.5801035968759604</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-0.580578422599521</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.5810879232109477</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-0.5816222718499876</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-0.582173432108439</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-0.58273488449731</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-0.5833013896203911</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-0.5838687837068969</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-0.5844338026163355</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-0.5849939308359571</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-0.5855472723573913</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-0.5860924406515814</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-0.5866284652641692</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-0.5871547128298562</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-0.5876708205558628</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-0.5881766404530767</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-0.5886721928001596</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-0.5891576275121893</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-0.5896331922526495</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-0.5900992062771454</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-0.590556039130426</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-0.5910040934364921</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-0.5914437911260613</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-0.5918755625376808</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>-0.5922998379095634</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +9647,135 @@
       <c r="E64" t="n">
         <v>-0.8882697382322859</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.8849601781719029</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.8824994670523763</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.8806800737496547</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.8793595169333317</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.8784367543848305</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.8778375645738414</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.8775054509323625</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.8773959473498393</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.8774730237342825</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.8777067909859388</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8780720115369318</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.8785471103908948</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-0.879113498092742</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.879755089103071</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-0.8804579436650318</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.8812099888866635</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-0.8820007918631211</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-0.8828213682182826</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-0.8836640159294176</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-0.8845221682531541</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>-0.8853902619575392</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>-0.886263618484422</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>-0.8871383364940232</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>-0.8880111947135534</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>-0.8888795642695174</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>-0.8897413298186398</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>-0.8905948188599303</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-0.8914387386431033</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-0.8922721201055535</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>-0.8930942682821645</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>-0.8939047186449558</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>-0.8947031988455355</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>-0.8954895953532851</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>-0.8962639245059713</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>-0.8970263075163878</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>-0.897776949007806</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>-0.8985161186816144</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>-0.8992441357516963</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>-0.8999613558111946</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>-0.900668159827723</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>-0.9013649449924005</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>-0.902052117175973</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>-0.9027300847715078</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +9793,135 @@
       <c r="E65" t="n">
         <v>-0.06988912152516316</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.06718427479504516</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.06458310999495076</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.06225336096864476</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.06025565520938061</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.05859475738128919</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.05724807048601277</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.05618123996972042</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.05535649388581119</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.05473692472518484</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.0542885280797017</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.05398102090082683</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.0537880124272677</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.05368684661158757</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.05365829165117954</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.05368617185576484</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.05375699218675924</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.05385958087663578</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.05398476181974974</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.05412506098472097</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-0.05427444715773467</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>-0.05442810532915484</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>-0.05458224011066341</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>-0.05473390622919634</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>-0.05488086311520764</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>-0.05502145073479495</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>-0.05515448402401766</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>-0.0552791635230832</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-0.05539500005282955</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>-0.05550175151275345</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>-0.05559937010200056</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>-0.05568795846920698</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>-0.05576773348289804</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>-0.0558389964814954</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>-0.0559021090116433</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>-0.05595747319667188</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>-0.05600551599482671</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>-0.05604667671073292</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>-0.05608139721472348</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>-0.05611011440440149</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>-0.05613325451231008</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>-0.05615122892396164</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>-0.05616443122274066</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>-0.05617323522329978</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +9939,135 @@
       <c r="E66" t="n">
         <v>-0.8028712842111282</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.8045439180453359</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.8056474057374762</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.806476607467705</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.807202561357359</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.8079193239306911</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.8086741104572733</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.8094863708948918</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.8103596916728268</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.8112891143870142</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.8122655590577884</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.8132784351939163</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.8143171290335599</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.815371801259546</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.8164337676335096</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.8174956325627375</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-0.8185512810687213</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.8195957940753092</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-0.8206253265177863</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.8216369718833807</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-0.8226286268927701</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0.823598863896786</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>-0.8245468147941277</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-0.8254720679946759</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-0.8263745786047638</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-0.8272545912458507</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-0.8281125745155632</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>-0.8289491659202753</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-0.8297651260628929</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-0.8305613009024693</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-0.8313385909785892</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-0.8320979265911883</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-0.8328402480321202</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>-0.8335664900702409</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-0.8342775699923209</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-0.8349743785952257</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>-0.8356577736093243</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>-0.8363285751087175</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>-0.8369875625307747</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>-0.8376354729861304</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>-0.8382730005913648</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>-0.8389007966007643</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>-0.8395194701515453</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>-0.8401295894694474</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +10084,135 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7913849935865369</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.7924657400741872</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.7927833172258647</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.7928167936002092</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.7928215945943368</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.7929242243220755</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.7931779470141981</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.7935954927467588</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.7941682021667567</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.7948771439451072</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.7956994713923704</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7966119552714424</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7975928466702461</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7986227599511128</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.799684989520389</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.8007655086794591</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.801852799170479</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.8029375997516095</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.8040126255533253</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.805072287735724</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.8061124294784096</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.8071300861996374</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.8081232730567379</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.8090907999612034</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.8100321127697877</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.8109471585044679</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.811836272108482</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.8127000821753245</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.8135394331754974</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8143553218791889</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.8151488458869232</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.8159211624072766</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8166734556447496</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.8174069113726743</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.8181226974608252</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.8188219493031984</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8195057592478497</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.8201751692684371</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8208311662373209</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8214746792643052</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8221065786548435</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8227276761184462</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8233387259235424</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>-0.8239404267506523</v>
       </c>
     </row>
   </sheetData>

--- a/PLSstatic_predicted_variables_matrix_7.xlsx
+++ b/PLSstatic_predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,9 +575,6 @@
       <c r="AU1" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -721,9 +718,6 @@
       <c r="AU2" t="n">
         <v>-0.2435355900107248</v>
       </c>
-      <c r="AV2" t="n">
-        <v>-0.2436813244478627</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -867,9 +861,6 @@
       <c r="AU3" t="n">
         <v>0.2433676260260113</v>
       </c>
-      <c r="AV3" t="n">
-        <v>0.2436053334751918</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1013,9 +1004,6 @@
       <c r="AU4" t="n">
         <v>0.2341955429790493</v>
       </c>
-      <c r="AV4" t="n">
-        <v>0.2344118898093385</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1159,9 +1147,6 @@
       <c r="AU5" t="n">
         <v>-0.06672042917651358</v>
       </c>
-      <c r="AV5" t="n">
-        <v>-0.06672268170019002</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1305,9 +1290,6 @@
       <c r="AU6" t="n">
         <v>0.1944903673096871</v>
       </c>
-      <c r="AV6" t="n">
-        <v>0.1947021982594885</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1451,9 +1433,6 @@
       <c r="AU7" t="n">
         <v>-0.4028529074722443</v>
       </c>
-      <c r="AV7" t="n">
-        <v>-0.4031251031579645</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1597,9 +1576,6 @@
       <c r="AU8" t="n">
         <v>-0.1384703387139933</v>
       </c>
-      <c r="AV8" t="n">
-        <v>-0.1385261820220333</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1743,9 +1719,6 @@
       <c r="AU9" t="n">
         <v>-0.3337310117356583</v>
       </c>
-      <c r="AV9" t="n">
-        <v>-0.3339459206994765</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1889,9 +1862,6 @@
       <c r="AU10" t="n">
         <v>0.406171792985601</v>
       </c>
-      <c r="AV10" t="n">
-        <v>0.4065291046024926</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2035,9 +2005,6 @@
       <c r="AU11" t="n">
         <v>-0.2017026002213614</v>
       </c>
-      <c r="AV11" t="n">
-        <v>-0.2018195835501163</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2181,9 +2148,6 @@
       <c r="AU12" t="n">
         <v>-0.1020511064342388</v>
       </c>
-      <c r="AV12" t="n">
-        <v>-0.1020927964116146</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2327,9 +2291,6 @@
       <c r="AU13" t="n">
         <v>-0.04573256016756087</v>
       </c>
-      <c r="AV13" t="n">
-        <v>-0.04571177631834025</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2473,9 +2434,6 @@
       <c r="AU14" t="n">
         <v>0.03274992011742518</v>
       </c>
-      <c r="AV14" t="n">
-        <v>0.03282085625760321</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2619,9 +2577,6 @@
       <c r="AU15" t="n">
         <v>-0.1163591011773891</v>
       </c>
-      <c r="AV15" t="n">
-        <v>-0.1164082191203708</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2765,9 +2720,6 @@
       <c r="AU16" t="n">
         <v>0.2957486227748806</v>
       </c>
-      <c r="AV16" t="n">
-        <v>0.2960060704981695</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2911,9 +2863,6 @@
       <c r="AU17" t="n">
         <v>0.4313584865719775</v>
       </c>
-      <c r="AV17" t="n">
-        <v>0.4317532070138167</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3057,9 +3006,6 @@
       <c r="AU18" t="n">
         <v>-0.1569388954132286</v>
       </c>
-      <c r="AV18" t="n">
-        <v>-0.1569854258545494</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3203,9 +3149,6 @@
       <c r="AU19" t="n">
         <v>0.3103127082372641</v>
       </c>
-      <c r="AV19" t="n">
-        <v>0.3105909428874388</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3349,9 +3292,6 @@
       <c r="AU20" t="n">
         <v>0.1906271460370068</v>
       </c>
-      <c r="AV20" t="n">
-        <v>0.1908084121745731</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3495,9 +3435,6 @@
       <c r="AU21" t="n">
         <v>0.4918134018556031</v>
       </c>
-      <c r="AV21" t="n">
-        <v>0.4922285661444043</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3641,9 +3578,6 @@
       <c r="AU22" t="n">
         <v>0.2515421785100935</v>
       </c>
-      <c r="AV22" t="n">
-        <v>0.2517963150810269</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3787,9 +3721,6 @@
       <c r="AU23" t="n">
         <v>-0.1806053311284287</v>
       </c>
-      <c r="AV23" t="n">
-        <v>-0.1806800427215592</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3933,9 +3864,6 @@
       <c r="AU24" t="n">
         <v>1.393579753467453</v>
       </c>
-      <c r="AV24" t="n">
-        <v>1.394835719938409</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4079,9 +4007,6 @@
       <c r="AU25" t="n">
         <v>0.3410045389225102</v>
       </c>
-      <c r="AV25" t="n">
-        <v>0.3413788338209475</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4225,9 +4150,6 @@
       <c r="AU26" t="n">
         <v>0.1653443783903375</v>
       </c>
-      <c r="AV26" t="n">
-        <v>0.1655772853364755</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4371,9 +4293,6 @@
       <c r="AU27" t="n">
         <v>0.05516598619441759</v>
       </c>
-      <c r="AV27" t="n">
-        <v>0.05533007261890857</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4517,9 +4436,6 @@
       <c r="AU28" t="n">
         <v>0.8671879630828121</v>
       </c>
-      <c r="AV28" t="n">
-        <v>0.8679862991243494</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4663,9 +4579,6 @@
       <c r="AU29" t="n">
         <v>1.747923035630484</v>
       </c>
-      <c r="AV29" t="n">
-        <v>1.749596731273581</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4809,9 +4722,6 @@
       <c r="AU30" t="n">
         <v>0.7086249661032835</v>
       </c>
-      <c r="AV30" t="n">
-        <v>0.7092868335678486</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4955,9 +4865,6 @@
       <c r="AU31" t="n">
         <v>-0.4190989765789005</v>
       </c>
-      <c r="AV31" t="n">
-        <v>-0.4193046862143538</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5101,9 +5008,6 @@
       <c r="AU32" t="n">
         <v>0.5924980286546263</v>
       </c>
-      <c r="AV32" t="n">
-        <v>0.5930501959814282</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5247,9 +5151,6 @@
       <c r="AU33" t="n">
         <v>0.8056422548666926</v>
       </c>
-      <c r="AV33" t="n">
-        <v>0.8063482296352749</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5393,9 +5294,6 @@
       <c r="AU34" t="n">
         <v>-0.839933784753811</v>
       </c>
-      <c r="AV34" t="n">
-        <v>-0.8404730165348114</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5539,9 +5437,6 @@
       <c r="AU35" t="n">
         <v>0.8565760771675242</v>
       </c>
-      <c r="AV35" t="n">
-        <v>0.8573056749832749</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5685,9 +5580,6 @@
       <c r="AU36" t="n">
         <v>0.8267174403869428</v>
       </c>
-      <c r="AV36" t="n">
-        <v>0.8274247794340106</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5831,9 +5723,6 @@
       <c r="AU37" t="n">
         <v>0.7904021934384927</v>
       </c>
-      <c r="AV37" t="n">
-        <v>0.7910841463203501</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5977,9 +5866,6 @@
       <c r="AU38" t="n">
         <v>0.6892422610353742</v>
       </c>
-      <c r="AV38" t="n">
-        <v>0.689850998793428</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6123,9 +6009,6 @@
       <c r="AU39" t="n">
         <v>0.6422377562850291</v>
       </c>
-      <c r="AV39" t="n">
-        <v>0.642791685405256</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6269,9 +6152,6 @@
       <c r="AU40" t="n">
         <v>0.81662436577512</v>
       </c>
-      <c r="AV40" t="n">
-        <v>0.817322768416777</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6415,9 +6295,6 @@
       <c r="AU41" t="n">
         <v>0.6059107527955169</v>
       </c>
-      <c r="AV41" t="n">
-        <v>0.606450786955497</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6561,9 +6438,6 @@
       <c r="AU42" t="n">
         <v>0.6833056056276279</v>
       </c>
-      <c r="AV42" t="n">
-        <v>0.6839087584275777</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6707,9 +6581,6 @@
       <c r="AU43" t="n">
         <v>0.7189260523195653</v>
       </c>
-      <c r="AV43" t="n">
-        <v>0.7195517866768201</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6853,9 +6724,6 @@
       <c r="AU44" t="n">
         <v>0.7438202025101445</v>
       </c>
-      <c r="AV44" t="n">
-        <v>0.7444561796814897</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6999,9 +6867,6 @@
       <c r="AU45" t="n">
         <v>0.7650312752538884</v>
       </c>
-      <c r="AV45" t="n">
-        <v>0.7656829399639615</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -7145,9 +7010,6 @@
       <c r="AU46" t="n">
         <v>-1.339667208879114</v>
       </c>
-      <c r="AV46" t="n">
-        <v>-1.340673757818782</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7291,9 +7153,6 @@
       <c r="AU47" t="n">
         <v>-1.040769797964081</v>
       </c>
-      <c r="AV47" t="n">
-        <v>-1.041538335130466</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7437,9 +7296,6 @@
       <c r="AU48" t="n">
         <v>-0.8955343001897131</v>
       </c>
-      <c r="AV48" t="n">
-        <v>-0.8962005064055235</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7583,9 +7439,6 @@
       <c r="AU49" t="n">
         <v>-0.6552416562029164</v>
       </c>
-      <c r="AV49" t="n">
-        <v>-0.6557160965520904</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7729,9 +7582,6 @@
       <c r="AU50" t="n">
         <v>-0.06599293019756079</v>
       </c>
-      <c r="AV50" t="n">
-        <v>-0.06600203642069699</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7875,9 +7725,6 @@
       <c r="AU51" t="n">
         <v>-0.8735831676333441</v>
       </c>
-      <c r="AV51" t="n">
-        <v>-0.874222810080848</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -8021,9 +7868,6 @@
       <c r="AU52" t="n">
         <v>-0.8735831676333441</v>
       </c>
-      <c r="AV52" t="n">
-        <v>-0.874222810080848</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -8167,9 +8011,6 @@
       <c r="AU53" t="n">
         <v>-1.168068882863515</v>
       </c>
-      <c r="AV53" t="n">
-        <v>-1.168949904120097</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -8313,9 +8154,6 @@
       <c r="AU54" t="n">
         <v>-0.1775696747554091</v>
       </c>
-      <c r="AV54" t="n">
-        <v>-0.1776727992673277</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8459,9 +8297,6 @@
       <c r="AU55" t="n">
         <v>-1.062831930519509</v>
       </c>
-      <c r="AV55" t="n">
-        <v>-1.063620759266487</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8605,9 +8440,6 @@
       <c r="AU56" t="n">
         <v>-0.9381461193737068</v>
       </c>
-      <c r="AV56" t="n">
-        <v>-0.9388285266273477</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8751,9 +8583,6 @@
       <c r="AU57" t="n">
         <v>-1.00959533314903</v>
       </c>
-      <c r="AV57" t="n">
-        <v>-1.010345764669735</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8897,9 +8726,6 @@
       <c r="AU58" t="n">
         <v>-1.159932841520739</v>
       </c>
-      <c r="AV58" t="n">
-        <v>-1.160795134472242</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -9043,9 +8869,6 @@
       <c r="AU59" t="n">
         <v>-0.8293229507010338</v>
       </c>
-      <c r="AV59" t="n">
-        <v>-0.8299354811959648</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -9189,9 +9012,6 @@
       <c r="AU60" t="n">
         <v>-0.4634552074650968</v>
       </c>
-      <c r="AV60" t="n">
-        <v>-0.4637748425288144</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -9335,9 +9155,6 @@
       <c r="AU61" t="n">
         <v>0.3983583263514076</v>
       </c>
-      <c r="AV61" t="n">
-        <v>0.3987165561497799</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9481,9 +9298,6 @@
       <c r="AU62" t="n">
         <v>-1.281220764972184</v>
       </c>
-      <c r="AV62" t="n">
-        <v>-1.282184661470085</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9627,9 +9441,6 @@
       <c r="AU63" t="n">
         <v>-0.5918755625376808</v>
       </c>
-      <c r="AV63" t="n">
-        <v>-0.5922998379095634</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9773,9 +9584,6 @@
       <c r="AU64" t="n">
         <v>-0.902052117175973</v>
       </c>
-      <c r="AV64" t="n">
-        <v>-0.9027300847715078</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9919,9 +9727,6 @@
       <c r="AU65" t="n">
         <v>-0.05616443122274066</v>
       </c>
-      <c r="AV65" t="n">
-        <v>-0.05617323522329978</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -10065,9 +9870,6 @@
       <c r="AU66" t="n">
         <v>-0.8395194701515453</v>
       </c>
-      <c r="AV66" t="n">
-        <v>-0.8401295894694474</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -10210,9 +10012,6 @@
       </c>
       <c r="AU67" t="n">
         <v>-0.8233387259235424</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>-0.8239404267506523</v>
       </c>
     </row>
   </sheetData>
